--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -6179,8 +6179,9 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=201902&amp;CurSec=S1&amp;CurCod=ADBDS&amp;Anno=2019"/>
   </hyperlinks>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.55118110236220474" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -6476,18 +6477,2293 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId19" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId19" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId19" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId21" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId21" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId22" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId22" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId23" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId23" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId27" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId28" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId28" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId29" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId29" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId30" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId30" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId31" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId31" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId32" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId32" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId33" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId33" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId34" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId34" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId35" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId35" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId36" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId36" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId37" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId37" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId38" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId38" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId39" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId39" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId40" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId40" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId41" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId41" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId42" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId42" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId43" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId43" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId44" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId44" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId45" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId45" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId46" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId46" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId47" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId47" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId48" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId48" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId49" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId49" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId50" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId50" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId51" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId51" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId52" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId52" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId53" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId53" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId54" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId54" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId55" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId55" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId56" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId56" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId57" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId57" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId58" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId58" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId59" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId59" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId60" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId60" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId61" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId61" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId62" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId62" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId63" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId63" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId64" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId64" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId65" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId65" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId66" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId66" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId67" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId67" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId68" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId68" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId69" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId69" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId70" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId70" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId71" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId71" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId72" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId72" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId73" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId73" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId74" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId74" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId75" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId75" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId76" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId76" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId77" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId77" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId78" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId78" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId79" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId79" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId80" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId80" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId81" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId81" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId82" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId82" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId83" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId83" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId84" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId84" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId85" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId85" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId86" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId86" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId87" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId87" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId88" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId88" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId89" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId89" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId90" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId90" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId91" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId91" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId92" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId92" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId93" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId93" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId94" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId94" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId95" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId95" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId96" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId96" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId97" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId97" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId98" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId98" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId99" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId99" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId100" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId100" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId101" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId101" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId102" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId102" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId103" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId103" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId104" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId104" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId105" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId105" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId106" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId106" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId107" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId107" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId108" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId108" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId109" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId109" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId110" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId110" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId111" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -6496,16 +8772,116 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2146" r:id="rId19" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId21" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2140" r:id="rId111" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId112" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId112" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId113" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId113" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId114" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId114" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId115" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId115" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId116" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -6521,22 +8897,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2145" r:id="rId21" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId22" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
+        <control shapeId="2145" r:id="rId116" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId117" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
@@ -6546,2382 +8922,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2144" r:id="rId22" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId23" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId23" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId24" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId24" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId25" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId25" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId26" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId26" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId27" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId27" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId28" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId28" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId29" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId29" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId30" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId30" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId31" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId31" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId32" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId32" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId33" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId33" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId34" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId34" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId35" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId35" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId36" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId36" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId37" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId37" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId38" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId38" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId39" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId39" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId40" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId40" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId41" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId41" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId42" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId42" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId43" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId43" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId44" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId44" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId45" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId45" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId46" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId46" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId47" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId47" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId48" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId48" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId49" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId49" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId50" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId50" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId51" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId51" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId52" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId52" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId53" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId53" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId54" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId54" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId55" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId55" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId56" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId56" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId57" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId57" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId58" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId58" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId59" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId59" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId60" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId60" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId61" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId61" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId62" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId62" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId63" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId63" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId64" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId64" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId65" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId65" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId66" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId66" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId67" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId67" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId68" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId68" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId70" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId70" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId71" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId71" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId72" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId72" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId73" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId73" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId74" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId74" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId75" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId75" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId76" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId76" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId77" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId77" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId78" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId78" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId79" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId79" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId80" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId80" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId81" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId81" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId82" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId82" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId83" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId83" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId84" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId84" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId85" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId85" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId86" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId86" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId87" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId87" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId88" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId88" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId89" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId89" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId90" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId90" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId91" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId91" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId92" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId92" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId93" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId93" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId94" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId94" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId95" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId95" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId96" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId96" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId97" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId97" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId98" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId98" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId99" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId99" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId100" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId100" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId101" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId101" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId102" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId102" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId103" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId103" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId104" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId104" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId105" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId105" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId106" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId106" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId107" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId107" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId108" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId108" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId109" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId109" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId110" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId110" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId111" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId111" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId112" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId112" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId113" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId113" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId114" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId114" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId115" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId115" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId116" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId116" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId117" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>121920</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId117" name="Control 1"/>
+        <control shapeId="2146" r:id="rId117" name="Control 98"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
